--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il2-Il2rb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il2-Il2rb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,19 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Il2</t>
+  </si>
+  <si>
+    <t>Il2rb</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Il2</t>
-  </si>
-  <si>
-    <t>Il2rb</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,10 +543,10 @@
         <v>0.238898</v>
       </c>
       <c r="I2">
-        <v>0.4881536440187907</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.4881536440187907</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,10 +561,10 @@
         <v>2.415267</v>
       </c>
       <c r="O2">
-        <v>0.4647747390621633</v>
+        <v>0.4118548214512568</v>
       </c>
       <c r="P2">
-        <v>0.4647747390621632</v>
+        <v>0.4156154679278413</v>
       </c>
       <c r="Q2">
         <v>0.06411138397400001</v>
@@ -570,10 +573,10 @@
         <v>0.577002455766</v>
       </c>
       <c r="S2">
-        <v>0.2268814825210776</v>
+        <v>0.4118548214512568</v>
       </c>
       <c r="T2">
-        <v>0.2268814825210776</v>
+        <v>0.4156154679278413</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -602,40 +605,40 @@
         <v>0.238898</v>
       </c>
       <c r="I3">
-        <v>0.4881536440187907</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.4881536440187907</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7189636666666667</v>
+        <v>0.9511543333333333</v>
       </c>
       <c r="N3">
-        <v>2.156891</v>
+        <v>2.853463</v>
       </c>
       <c r="O3">
-        <v>0.4150549201022199</v>
+        <v>0.4865766370271973</v>
       </c>
       <c r="P3">
-        <v>0.4150549201022198</v>
+        <v>0.4910195684202955</v>
       </c>
       <c r="Q3">
-        <v>0.05725299401311111</v>
+        <v>0.07574295597488889</v>
       </c>
       <c r="R3">
-        <v>0.515276946118</v>
+        <v>0.681686603774</v>
       </c>
       <c r="S3">
-        <v>0.2026105717158267</v>
+        <v>0.4865766370271973</v>
       </c>
       <c r="T3">
-        <v>0.2026105717158267</v>
+        <v>0.4910195684202955</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,54 +667,54 @@
         <v>0.238898</v>
       </c>
       <c r="I4">
-        <v>0.4881536440187907</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.4881536440187907</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.2081606666666667</v>
+        <v>0.053063</v>
       </c>
       <c r="N4">
-        <v>0.624482</v>
+        <v>0.106126</v>
       </c>
       <c r="O4">
-        <v>0.1201703408356169</v>
+        <v>0.0271451384762033</v>
       </c>
       <c r="P4">
-        <v>0.1201703408356169</v>
+        <v>0.0182620004948977</v>
       </c>
       <c r="Q4">
-        <v>0.01657638898177778</v>
+        <v>0.004225548191333334</v>
       </c>
       <c r="R4">
-        <v>0.149187500836</v>
+        <v>0.025353289148</v>
       </c>
       <c r="S4">
-        <v>0.05866158978188647</v>
+        <v>0.0271451384762033</v>
       </c>
       <c r="T4">
-        <v>0.05866158978188647</v>
+        <v>0.0182620004948977</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -720,170 +723,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.08349766666666665</v>
+        <v>0.07963266666666667</v>
       </c>
       <c r="H5">
-        <v>0.250493</v>
+        <v>0.238898</v>
       </c>
       <c r="I5">
-        <v>0.5118463559812092</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.5118463559812093</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.8050890000000001</v>
+        <v>0.145482</v>
       </c>
       <c r="N5">
-        <v>2.415267</v>
+        <v>0.436446</v>
       </c>
       <c r="O5">
-        <v>0.4647747390621633</v>
+        <v>0.07442340304534249</v>
       </c>
       <c r="P5">
-        <v>0.4647747390621632</v>
+        <v>0.07510296315696552</v>
       </c>
       <c r="Q5">
-        <v>0.067223052959</v>
+        <v>0.011585119612</v>
       </c>
       <c r="R5">
-        <v>0.605007476631</v>
+        <v>0.104266076508</v>
       </c>
       <c r="S5">
-        <v>0.2378932565410856</v>
+        <v>0.07442340304534249</v>
       </c>
       <c r="T5">
-        <v>0.2378932565410856</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.08349766666666665</v>
-      </c>
-      <c r="H6">
-        <v>0.250493</v>
-      </c>
-      <c r="I6">
-        <v>0.5118463559812092</v>
-      </c>
-      <c r="J6">
-        <v>0.5118463559812093</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>0.7189636666666667</v>
-      </c>
-      <c r="N6">
-        <v>2.156891</v>
-      </c>
-      <c r="O6">
-        <v>0.4150549201022199</v>
-      </c>
-      <c r="P6">
-        <v>0.4150549201022198</v>
-      </c>
-      <c r="Q6">
-        <v>0.06003178858477776</v>
-      </c>
-      <c r="R6">
-        <v>0.5402860972629999</v>
-      </c>
-      <c r="S6">
-        <v>0.2124443483863932</v>
-      </c>
-      <c r="T6">
-        <v>0.2124443483863932</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.08349766666666665</v>
-      </c>
-      <c r="H7">
-        <v>0.250493</v>
-      </c>
-      <c r="I7">
-        <v>0.5118463559812092</v>
-      </c>
-      <c r="J7">
-        <v>0.5118463559812093</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>0.2081606666666667</v>
-      </c>
-      <c r="N7">
-        <v>0.624482</v>
-      </c>
-      <c r="O7">
-        <v>0.1201703408356169</v>
-      </c>
-      <c r="P7">
-        <v>0.1201703408356169</v>
-      </c>
-      <c r="Q7">
-        <v>0.01738092995844444</v>
-      </c>
-      <c r="R7">
-        <v>0.156428369626</v>
-      </c>
-      <c r="S7">
-        <v>0.06150875105373038</v>
-      </c>
-      <c r="T7">
-        <v>0.0615087510537304</v>
+        <v>0.07510296315696552</v>
       </c>
     </row>
   </sheetData>
